--- a/Mifos Automation Excels/Client/Scenario2-Chaithanyaprod-ONTIME-TR1-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/Scenario2-Chaithanyaprod-ONTIME-TR1-Newcreateloan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>newloan</t>
   </si>
@@ -175,7 +175,10 @@
     <t>test</t>
   </si>
   <si>
-    <t>Chaithanya 123</t>
+    <t>chaithanyatest</t>
+  </si>
+  <si>
+    <t>Firstrepaymenton</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -627,90 +630,98 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B8" s="8">
         <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="7">
         <v>42005</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B11" s="9">
         <v>50000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="7">
         <v>42005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="7">
-        <v>42005</v>
+        <v>37</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="7">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -725,7 +736,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -845,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1510,7 +1521,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1549,7 +1560,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
-        <v>2833</v>
+        <v>197</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
